--- a/data/trans_orig/P45C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB9B0C2-DA04-4095-84EB-68AB9F7E432F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD6B131-08CB-4BF5-9CBA-5122ACC4F487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92624D0A-C914-463C-8ED2-60384229CCC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24D9E0ED-3F38-4475-A5AB-364B17D19FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="403">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>90,97%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>92,27%</t>
@@ -98,7 +98,7 @@
     <t>91,05%</t>
   </si>
   <si>
-    <t>93,34%</t>
+    <t>93,32%</t>
   </si>
   <si>
     <t>Si sin ampollas</t>
@@ -107,28 +107,28 @@
     <t>8,04%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>Sí con ampollas</t>
@@ -137,1114 +137,1105 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,47%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -1668,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1076B8-0D5A-451D-A19A-0A76134924CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D06488-49BC-4DD5-B317-C0B81F263A08}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,7 +2016,7 @@
         <v>2636</v>
       </c>
       <c r="N8" s="7">
-        <v>2710748</v>
+        <v>2710749</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2178,7 +2169,7 @@
         <v>3194</v>
       </c>
       <c r="N11" s="7">
-        <v>3272546</v>
+        <v>3272547</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2497,7 +2488,7 @@
         <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2503,13 @@
         <v>55141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -2527,13 +2518,13 @@
         <v>56351</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -2548,7 +2539,7 @@
         <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2595,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AAE107-07D6-4ADC-945F-5DC7369F6548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2ACCB5-F9AE-4F27-90C6-9A167F87D162}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2738,13 @@
         <v>856419</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>1115</v>
@@ -2762,13 +2753,13 @@
         <v>1195323</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>1908</v>
@@ -2777,13 +2768,13 @@
         <v>2051742</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2789,13 @@
         <v>99252</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -2813,13 +2804,13 @@
         <v>107004</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>195</v>
@@ -2828,13 +2819,13 @@
         <v>206256</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2840,13 @@
         <v>10719</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -2864,13 +2855,13 @@
         <v>19600</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -2879,13 +2870,13 @@
         <v>30320</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2944,13 @@
         <v>1567620</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>1355</v>
@@ -2968,13 +2959,13 @@
         <v>1464054</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>2821</v>
@@ -2983,13 +2974,13 @@
         <v>3031676</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2995,13 @@
         <v>354997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>240</v>
@@ -3019,13 +3010,13 @@
         <v>251898</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M9" s="7">
         <v>591</v>
@@ -3034,13 +3025,13 @@
         <v>606896</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3046,13 @@
         <v>27813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3070,13 +3061,13 @@
         <v>25799</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3085,13 +3076,13 @@
         <v>53612</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3150,13 @@
         <v>370106</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>344</v>
@@ -3174,13 +3165,13 @@
         <v>386337</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
         <v>677</v>
@@ -3189,13 +3180,13 @@
         <v>756442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3201,13 @@
         <v>99644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3225,13 +3216,13 @@
         <v>58471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3240,13 +3231,13 @@
         <v>158115</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3252,13 @@
         <v>5479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3276,13 +3267,13 @@
         <v>10861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3291,13 +3282,13 @@
         <v>16340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3356,13 @@
         <v>2794145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>2814</v>
@@ -3380,13 +3371,13 @@
         <v>3045714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>5406</v>
@@ -3395,13 +3386,13 @@
         <v>5839859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3407,13 @@
         <v>553893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -3431,13 +3422,13 @@
         <v>417373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>935</v>
@@ -3446,13 +3437,13 @@
         <v>971267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3458,13 @@
         <v>44012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -3482,13 +3473,13 @@
         <v>56260</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>95</v>
@@ -3497,13 +3488,13 @@
         <v>100272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3550,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +3569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD0E4F4-92AC-4873-B142-18AE5F6BA12E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F584826B-3561-49EC-9AC9-152101988798}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,7 +3586,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3702,13 +3693,13 @@
         <v>697122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>825</v>
@@ -3717,13 +3708,13 @@
         <v>922471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>1533</v>
@@ -3732,13 +3723,13 @@
         <v>1619593</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3744,13 @@
         <v>42042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -3768,13 +3759,13 @@
         <v>54405</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -3783,13 +3774,13 @@
         <v>96447</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3795,13 @@
         <v>7142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3819,13 +3810,13 @@
         <v>8115</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3834,13 +3825,13 @@
         <v>15258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3899,13 @@
         <v>1743269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>1592</v>
@@ -3923,13 +3914,13 @@
         <v>1662113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>3233</v>
@@ -3938,13 +3929,13 @@
         <v>3405382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3950,13 @@
         <v>298646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>284</v>
@@ -3974,13 +3965,13 @@
         <v>291317</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M9" s="7">
         <v>563</v>
@@ -3989,13 +3980,13 @@
         <v>589962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4001,13 @@
         <v>19057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4025,13 +4016,13 @@
         <v>24445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4040,13 +4031,13 @@
         <v>43502</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4105,13 @@
         <v>455893</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>425</v>
@@ -4129,13 +4120,13 @@
         <v>445741</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>842</v>
@@ -4144,13 +4135,13 @@
         <v>901633</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4156,13 @@
         <v>80765</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4180,13 +4171,13 @@
         <v>91258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -4195,13 +4186,13 @@
         <v>172024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4207,13 @@
         <v>4604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4231,13 +4222,13 @@
         <v>5903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4246,13 +4237,13 @@
         <v>10507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,28 +4311,28 @@
         <v>2896284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>2842</v>
       </c>
       <c r="I16" s="7">
-        <v>3030324</v>
+        <v>3030325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>5608</v>
@@ -4350,13 +4341,13 @@
         <v>5926607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4362,13 @@
         <v>421453</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>424</v>
@@ -4386,13 +4377,13 @@
         <v>436979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -4401,13 +4392,13 @@
         <v>858432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4413,13 @@
         <v>30803</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -4437,13 +4428,13 @@
         <v>38463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -4452,13 +4443,13 @@
         <v>69266</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +4476,7 @@
         <v>3303</v>
       </c>
       <c r="I19" s="7">
-        <v>3505766</v>
+        <v>3505767</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4514,7 +4505,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4533,7 +4524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0E0996-A260-48B9-B6F3-89A7FD8634A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBF83FA-3578-47D7-8E1F-1B4E568379C0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4550,7 +4541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4657,13 +4648,13 @@
         <v>455988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>1295</v>
@@ -4672,13 +4663,13 @@
         <v>758016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>1892</v>
@@ -4687,13 +4678,13 @@
         <v>1214004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4699,13 @@
         <v>71986</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>116</v>
@@ -4723,13 +4714,13 @@
         <v>67980</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -4738,13 +4729,13 @@
         <v>139966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4750,13 @@
         <v>12666</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4774,13 +4765,13 @@
         <v>9307</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -4789,13 +4780,13 @@
         <v>21973</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4854,13 @@
         <v>1762817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>2544</v>
@@ -4878,13 +4869,13 @@
         <v>1922662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>4216</v>
@@ -4893,13 +4884,13 @@
         <v>3685479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4905,13 @@
         <v>359841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H9" s="7">
         <v>335</v>
@@ -4929,13 +4920,13 @@
         <v>291781</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M9" s="7">
         <v>623</v>
@@ -4944,13 +4935,13 @@
         <v>651622</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>354</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4956,13 @@
         <v>33097</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4980,13 +4971,13 @@
         <v>32633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4995,13 +4986,13 @@
         <v>65730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5060,13 @@
         <v>577828</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>882</v>
@@ -5084,13 +5075,13 @@
         <v>614577</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>1471</v>
@@ -5099,13 +5090,13 @@
         <v>1192406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5111,13 @@
         <v>83343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -5135,13 +5126,13 @@
         <v>85440</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -5150,13 +5141,13 @@
         <v>168783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5162,13 @@
         <v>11867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -5186,13 +5177,13 @@
         <v>13870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -5201,13 +5192,13 @@
         <v>25737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5266,13 @@
         <v>2796633</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>4721</v>
@@ -5290,13 +5281,13 @@
         <v>3295256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>7579</v>
@@ -5305,13 +5296,13 @@
         <v>6091888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5317,13 @@
         <v>515170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>556</v>
@@ -5341,13 +5332,13 @@
         <v>445200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>1005</v>
@@ -5356,13 +5347,13 @@
         <v>960371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5368,13 @@
         <v>57631</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5392,13 +5383,13 @@
         <v>55810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -5407,13 +5398,13 @@
         <v>113441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5460,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD6B131-08CB-4BF5-9CBA-5122ACC4F487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29BC28D-201C-465C-B6CB-695C0BF44F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24D9E0ED-3F38-4475-A5AB-364B17D19FFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C181EABE-5B38-4D54-ADA3-8B9B5566AA11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="410">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1177 +77,1198 @@
     <t>90,97%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>Sí con ampollas</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>Sí con ampollas</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>84,58%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,31%</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D06488-49BC-4DD5-B317-C0B81F263A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B6B71-C1BD-4CAD-8CC6-E10FDB53C43C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,13 +1840,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>80</v>
@@ -1834,13 +1855,13 @@
         <v>82686</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -1849,13 +1870,13 @@
         <v>74314</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -1864,19 +1885,19 @@
         <v>156999</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -1885,13 +1906,13 @@
         <v>10162</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -1900,13 +1921,13 @@
         <v>13741</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -1915,13 +1936,13 @@
         <v>23903</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1957,13 @@
         <v>1028451</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1289</v>
@@ -1951,13 +1972,13 @@
         <v>1312871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2324</v>
@@ -1966,18 +1987,18 @@
         <v>2341322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1989,13 +2010,13 @@
         <v>1369105</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1306</v>
@@ -2004,13 +2025,13 @@
         <v>1341643</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2636</v>
@@ -2019,19 +2040,19 @@
         <v>2710749</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>282</v>
@@ -2040,13 +2061,13 @@
         <v>285351</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>212</v>
@@ -2055,13 +2076,13 @@
         <v>208871</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>494</v>
@@ -2070,19 +2091,19 @@
         <v>494222</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>33</v>
@@ -2091,13 +2112,13 @@
         <v>35361</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2106,13 +2127,13 @@
         <v>32215</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -2121,13 +2142,13 @@
         <v>67576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2163,13 @@
         <v>1689817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1549</v>
@@ -2157,13 +2178,13 @@
         <v>1582729</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3194</v>
@@ -2172,18 +2193,18 @@
         <v>3272547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2195,13 +2216,13 @@
         <v>450689</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>364</v>
@@ -2210,13 +2231,13 @@
         <v>385598</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>790</v>
@@ -2225,19 +2246,19 @@
         <v>836286</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>92</v>
@@ -2246,13 +2267,13 @@
         <v>90289</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -2261,13 +2282,13 @@
         <v>79407</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -2276,19 +2297,19 @@
         <v>169695</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>8</v>
@@ -2297,13 +2318,13 @@
         <v>9618</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -2312,13 +2333,13 @@
         <v>10395</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2327,13 +2348,13 @@
         <v>20013</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2369,13 @@
         <v>550596</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>451</v>
@@ -2363,13 +2384,13 @@
         <v>475399</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>977</v>
@@ -2378,13 +2399,13 @@
         <v>1025994</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2422,13 @@
         <v>2755397</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2868</v>
@@ -2416,13 +2437,13 @@
         <v>2952057</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>5568</v>
@@ -2431,19 +2452,19 @@
         <v>5707455</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>454</v>
@@ -2452,13 +2473,13 @@
         <v>458326</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>366</v>
@@ -2467,13 +2488,13 @@
         <v>362591</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>820</v>
@@ -2482,19 +2503,19 @@
         <v>820917</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>52</v>
@@ -2503,13 +2524,13 @@
         <v>55141</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -2518,13 +2539,13 @@
         <v>56351</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -2536,10 +2557,10 @@
         <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2575,13 @@
         <v>3268864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3289</v>
@@ -2569,13 +2590,13 @@
         <v>3370999</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6495</v>
@@ -2584,13 +2605,13 @@
         <v>6639864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2ACCB5-F9AE-4F27-90C6-9A167F87D162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A070CF8-379E-4B7B-A874-420217BD1B42}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,13 +2759,13 @@
         <v>856419</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>1115</v>
@@ -2753,13 +2774,13 @@
         <v>1195323</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>1908</v>
@@ -2768,19 +2789,19 @@
         <v>2051742</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>96</v>
@@ -2789,13 +2810,13 @@
         <v>99252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -2804,13 +2825,13 @@
         <v>107004</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>195</v>
@@ -2819,19 +2840,19 @@
         <v>206256</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -2840,10 +2861,10 @@
         <v>10719</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>143</v>
@@ -2891,13 +2912,13 @@
         <v>966390</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1232</v>
@@ -2906,13 +2927,13 @@
         <v>1321927</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2132</v>
@@ -2921,18 +2942,18 @@
         <v>2288318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2959,13 +2980,13 @@
         <v>1464054</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>2821</v>
@@ -2974,19 +2995,19 @@
         <v>3031676</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>351</v>
@@ -2995,13 +3016,13 @@
         <v>354997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>240</v>
@@ -3010,13 +3031,13 @@
         <v>251898</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>591</v>
@@ -3025,19 +3046,19 @@
         <v>606896</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>26</v>
@@ -3046,13 +3067,13 @@
         <v>27813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3064,10 +3085,10 @@
         <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3076,13 +3097,13 @@
         <v>53612</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3118,13 @@
         <v>1950431</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1620</v>
@@ -3112,13 +3133,13 @@
         <v>1741752</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3463</v>
@@ -3127,18 +3148,18 @@
         <v>3692184</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3150,13 +3171,13 @@
         <v>370106</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>344</v>
@@ -3165,13 +3186,13 @@
         <v>386337</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M12" s="7">
         <v>677</v>
@@ -3180,19 +3201,19 @@
         <v>756442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>94</v>
@@ -3201,13 +3222,13 @@
         <v>99644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3216,13 +3237,13 @@
         <v>58471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3231,19 +3252,19 @@
         <v>158115</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -3252,13 +3273,13 @@
         <v>5479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3267,13 +3288,13 @@
         <v>10861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3282,13 +3303,13 @@
         <v>16340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3324,13 @@
         <v>475229</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>409</v>
@@ -3318,13 +3339,13 @@
         <v>455668</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>841</v>
@@ -3333,13 +3354,13 @@
         <v>930897</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3377,13 @@
         <v>2794145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>2814</v>
@@ -3371,13 +3392,13 @@
         <v>3045714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>5406</v>
@@ -3386,19 +3407,19 @@
         <v>5839859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>541</v>
@@ -3407,13 +3428,13 @@
         <v>553893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -3422,13 +3443,13 @@
         <v>417373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>935</v>
@@ -3437,19 +3458,19 @@
         <v>971267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>42</v>
@@ -3458,13 +3479,13 @@
         <v>44012</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -3473,13 +3494,13 @@
         <v>56260</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M18" s="7">
         <v>95</v>
@@ -3488,13 +3509,13 @@
         <v>100272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3530,13 @@
         <v>3392050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3261</v>
@@ -3524,13 +3545,13 @@
         <v>3519348</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6436</v>
@@ -3539,13 +3560,13 @@
         <v>6911398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F584826B-3561-49EC-9AC9-152101988798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299CAB9-086E-44EF-A9B4-1C1428D18B42}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3586,7 +3607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3693,13 +3714,13 @@
         <v>697122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>825</v>
@@ -3708,13 +3729,13 @@
         <v>922471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>1533</v>
@@ -3723,19 +3744,19 @@
         <v>1619593</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>39</v>
@@ -3744,13 +3765,13 @@
         <v>42042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -3759,13 +3780,13 @@
         <v>54405</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -3774,19 +3795,19 @@
         <v>96447</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -3795,13 +3816,13 @@
         <v>7142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3810,13 +3831,13 @@
         <v>8115</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3825,13 +3846,13 @@
         <v>15258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3867,13 @@
         <v>746306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>884</v>
@@ -3861,13 +3882,13 @@
         <v>984991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1638</v>
@@ -3876,18 +3897,18 @@
         <v>1731297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3899,13 +3920,13 @@
         <v>1743269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>1592</v>
@@ -3914,13 +3935,13 @@
         <v>1662113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>3233</v>
@@ -3929,19 +3950,19 @@
         <v>3405382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>279</v>
@@ -3950,13 +3971,13 @@
         <v>298646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>284</v>
@@ -3965,13 +3986,13 @@
         <v>291317</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>563</v>
@@ -3980,19 +4001,19 @@
         <v>589962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>18</v>
@@ -4001,13 +4022,13 @@
         <v>19057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4016,13 +4037,13 @@
         <v>24445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4031,13 +4052,13 @@
         <v>43502</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4073,13 @@
         <v>2060972</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1899</v>
@@ -4067,13 +4088,13 @@
         <v>1977874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3837</v>
@@ -4082,18 +4103,18 @@
         <v>4038846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4105,13 +4126,13 @@
         <v>455893</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>425</v>
@@ -4120,13 +4141,13 @@
         <v>445741</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="M12" s="7">
         <v>842</v>
@@ -4135,19 +4156,19 @@
         <v>901633</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>76</v>
@@ -4156,13 +4177,13 @@
         <v>80765</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4171,13 +4192,13 @@
         <v>91258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -4186,19 +4207,19 @@
         <v>172024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -4207,13 +4228,13 @@
         <v>4604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4222,13 +4243,13 @@
         <v>5903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4237,13 +4258,13 @@
         <v>10507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4279,13 @@
         <v>541262</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>520</v>
@@ -4273,13 +4294,13 @@
         <v>542902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1016</v>
@@ -4288,13 +4309,13 @@
         <v>1084164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,28 +4332,28 @@
         <v>2896284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>2842</v>
       </c>
       <c r="I16" s="7">
-        <v>3030325</v>
+        <v>3030324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>5608</v>
@@ -4341,19 +4362,19 @@
         <v>5926607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>394</v>
@@ -4362,13 +4383,13 @@
         <v>421453</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>424</v>
@@ -4377,13 +4398,13 @@
         <v>436979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -4392,19 +4413,19 @@
         <v>858432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>28</v>
@@ -4413,13 +4434,13 @@
         <v>30803</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -4428,13 +4449,13 @@
         <v>38463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -4443,13 +4464,13 @@
         <v>69266</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,28 +4485,28 @@
         <v>3348540</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3303</v>
       </c>
       <c r="I19" s="7">
-        <v>3505767</v>
+        <v>3505766</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6491</v>
@@ -4494,13 +4515,13 @@
         <v>6854306</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBF83FA-3578-47D7-8E1F-1B4E568379C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91E182-136C-41ED-B76D-BF39DF1B3DB5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,7 +4562,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4648,13 +4669,13 @@
         <v>455988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>1295</v>
@@ -4663,13 +4684,13 @@
         <v>758016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>1892</v>
@@ -4678,19 +4699,19 @@
         <v>1214004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>80</v>
@@ -4699,13 +4720,13 @@
         <v>71986</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>116</v>
@@ -4714,13 +4735,13 @@
         <v>67980</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -4729,19 +4750,19 @@
         <v>139966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -4750,13 +4771,13 @@
         <v>12666</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4765,13 +4786,13 @@
         <v>9307</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -4780,13 +4801,13 @@
         <v>21973</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4822,13 @@
         <v>540640</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1426</v>
@@ -4816,13 +4837,13 @@
         <v>835303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2115</v>
@@ -4831,18 +4852,18 @@
         <v>1375943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4854,13 +4875,13 @@
         <v>1762817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>2544</v>
@@ -4869,13 +4890,13 @@
         <v>1922662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>4216</v>
@@ -4884,19 +4905,19 @@
         <v>3685479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>288</v>
@@ -4905,13 +4926,13 @@
         <v>359841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H9" s="7">
         <v>335</v>
@@ -4920,13 +4941,13 @@
         <v>291781</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M9" s="7">
         <v>623</v>
@@ -4935,19 +4956,19 @@
         <v>651622</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>355</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>27</v>
@@ -4956,13 +4977,13 @@
         <v>33097</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4971,13 +4992,13 @@
         <v>32633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4986,13 +5007,13 @@
         <v>65730</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5028,13 @@
         <v>2155755</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>2917</v>
@@ -5022,13 +5043,13 @@
         <v>2247076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>4904</v>
@@ -5037,18 +5058,18 @@
         <v>4402831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5060,13 +5081,13 @@
         <v>577828</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H12" s="7">
         <v>882</v>
@@ -5075,13 +5096,13 @@
         <v>614577</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M12" s="7">
         <v>1471</v>
@@ -5090,19 +5111,19 @@
         <v>1192406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>81</v>
@@ -5111,13 +5132,13 @@
         <v>83343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -5126,13 +5147,13 @@
         <v>85440</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -5141,19 +5162,19 @@
         <v>168783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -5162,13 +5183,13 @@
         <v>11867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -5177,13 +5198,13 @@
         <v>13870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -5192,13 +5213,13 @@
         <v>25737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5234,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>1004</v>
@@ -5228,13 +5249,13 @@
         <v>713886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1685</v>
@@ -5243,13 +5264,13 @@
         <v>1386926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5287,13 @@
         <v>2796633</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>4721</v>
@@ -5281,13 +5302,13 @@
         <v>3295256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>7579</v>
@@ -5296,19 +5317,19 @@
         <v>6091888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>449</v>
@@ -5317,13 +5338,13 @@
         <v>515170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>556</v>
@@ -5332,13 +5353,13 @@
         <v>445200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>1005</v>
@@ -5347,19 +5368,19 @@
         <v>960371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>50</v>
@@ -5368,13 +5389,13 @@
         <v>57631</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>406</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5383,13 +5404,13 @@
         <v>55810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>398</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>399</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -5398,13 +5419,13 @@
         <v>113441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5440,13 @@
         <v>3369434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>5347</v>
@@ -5434,13 +5455,13 @@
         <v>3796266</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>8704</v>
@@ -5449,13 +5470,13 @@
         <v>7165700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P45C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29BC28D-201C-465C-B6CB-695C0BF44F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B16DD03-E428-4669-A357-DB696BE52C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C181EABE-5B38-4D54-ADA3-8B9B5566AA11}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C2FCC79B-5D58-45F6-8A8C-53431C8EB6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="407">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -998,277 +998,268 @@
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B6B71-C1BD-4CAD-8CC6-E10FDB53C43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66AA671-074E-4E03-851A-66871333D4A1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1831,7 +1822,7 @@
         <v>2142</v>
       </c>
       <c r="N4" s="7">
-        <v>2160419</v>
+        <v>2160420</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1984,7 +1975,7 @@
         <v>2324</v>
       </c>
       <c r="N7" s="7">
-        <v>2341322</v>
+        <v>2341323</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -2635,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A070CF8-379E-4B7B-A874-420217BD1B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B89D6A4-74A6-4E49-8E03-CF0602F7B4E4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,7 +3395,7 @@
         <v>5406</v>
       </c>
       <c r="N16" s="7">
-        <v>5839859</v>
+        <v>5839860</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>204</v>
@@ -3557,7 +3548,7 @@
         <v>6436</v>
       </c>
       <c r="N19" s="7">
-        <v>6911398</v>
+        <v>6911399</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -3590,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299CAB9-086E-44EF-A9B4-1C1428D18B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09A4DFC-D106-4C28-8062-B9E8E721A38E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4344,7 +4335,7 @@
         <v>2842</v>
       </c>
       <c r="I16" s="7">
-        <v>3030324</v>
+        <v>3030325</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>299</v>
@@ -4497,7 +4488,7 @@
         <v>3303</v>
       </c>
       <c r="I19" s="7">
-        <v>3505766</v>
+        <v>3505767</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -4545,7 +4536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91E182-136C-41ED-B76D-BF39DF1B3DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F1F269-84A5-4290-9737-B71CA637966E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4666,7 +4657,7 @@
         <v>597</v>
       </c>
       <c r="D4" s="7">
-        <v>455988</v>
+        <v>436801</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>319</v>
@@ -4681,7 +4672,7 @@
         <v>1295</v>
       </c>
       <c r="I4" s="7">
-        <v>758016</v>
+        <v>685558</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>322</v>
@@ -4696,7 +4687,7 @@
         <v>1892</v>
       </c>
       <c r="N4" s="7">
-        <v>1214004</v>
+        <v>1122359</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>325</v>
@@ -4717,7 +4708,7 @@
         <v>80</v>
       </c>
       <c r="D5" s="7">
-        <v>71986</v>
+        <v>65376</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>328</v>
@@ -4732,31 +4723,31 @@
         <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>67980</v>
+        <v>60671</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
       </c>
       <c r="N5" s="7">
-        <v>139966</v>
+        <v>126047</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,46 +4759,46 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>12666</v>
+        <v>11821</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>9307</v>
+        <v>8686</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
       </c>
       <c r="N6" s="7">
-        <v>21973</v>
+        <v>20507</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4810,7 @@
         <v>689</v>
       </c>
       <c r="D7" s="7">
-        <v>540640</v>
+        <v>513998</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4834,7 +4825,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835303</v>
+        <v>754915</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -4849,7 +4840,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1375943</v>
+        <v>1268913</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -4872,22 +4863,22 @@
         <v>1672</v>
       </c>
       <c r="D8" s="7">
-        <v>1762817</v>
+        <v>1919045</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>2544</v>
       </c>
       <c r="I8" s="7">
-        <v>1922662</v>
+        <v>1945360</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>343</v>
@@ -4902,7 +4893,7 @@
         <v>4216</v>
       </c>
       <c r="N8" s="7">
-        <v>3685479</v>
+        <v>3864404</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>346</v>
@@ -4923,7 +4914,7 @@
         <v>288</v>
       </c>
       <c r="D9" s="7">
-        <v>359841</v>
+        <v>333085</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>349</v>
@@ -4938,31 +4929,31 @@
         <v>335</v>
       </c>
       <c r="I9" s="7">
-        <v>291781</v>
+        <v>259981</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>651622</v>
+        <v>593065</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,46 +4965,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>33097</v>
+        <v>31851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>32633</v>
+        <v>30422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>65730</v>
+        <v>62273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,7 +5016,7 @@
         <v>1987</v>
       </c>
       <c r="D11" s="7">
-        <v>2155755</v>
+        <v>2283981</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -5040,7 +5031,7 @@
         <v>2917</v>
       </c>
       <c r="I11" s="7">
-        <v>2247076</v>
+        <v>2235762</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -5055,7 +5046,7 @@
         <v>4904</v>
       </c>
       <c r="N11" s="7">
-        <v>4402831</v>
+        <v>4519743</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -5078,46 +5069,46 @@
         <v>589</v>
       </c>
       <c r="D12" s="7">
-        <v>577828</v>
+        <v>556739</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>882</v>
       </c>
       <c r="I12" s="7">
-        <v>614577</v>
+        <v>570197</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>1471</v>
       </c>
       <c r="N12" s="7">
-        <v>1192406</v>
+        <v>1126936</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,46 +5120,46 @@
         <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>83343</v>
+        <v>78268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>85440</v>
+        <v>77678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>168783</v>
+        <v>155946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,46 +5171,46 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>11867</v>
+        <v>11616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>13870</v>
+        <v>12588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
       </c>
       <c r="N14" s="7">
-        <v>25737</v>
+        <v>24204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5222,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5246,7 +5237,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5261,7 +5252,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5284,46 +5275,46 @@
         <v>2858</v>
       </c>
       <c r="D16" s="7">
-        <v>2796633</v>
+        <v>2912585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>4721</v>
       </c>
       <c r="I16" s="7">
-        <v>3295256</v>
+        <v>3201114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>7579</v>
       </c>
       <c r="N16" s="7">
-        <v>6091888</v>
+        <v>6113699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,46 +5326,46 @@
         <v>449</v>
       </c>
       <c r="D17" s="7">
-        <v>515170</v>
+        <v>476728</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>556</v>
       </c>
       <c r="I17" s="7">
-        <v>445200</v>
+        <v>398330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>1005</v>
       </c>
       <c r="N17" s="7">
-        <v>960371</v>
+        <v>875058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,46 +5377,46 @@
         <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>57631</v>
+        <v>55289</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>221</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
       </c>
       <c r="I18" s="7">
-        <v>55810</v>
+        <v>51696</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
       </c>
       <c r="N18" s="7">
-        <v>113441</v>
+        <v>106985</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5428,7 @@
         <v>3357</v>
       </c>
       <c r="D19" s="7">
-        <v>3369434</v>
+        <v>3444602</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5452,7 +5443,7 @@
         <v>5347</v>
       </c>
       <c r="I19" s="7">
-        <v>3796266</v>
+        <v>3651140</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5467,7 +5458,7 @@
         <v>8704</v>
       </c>
       <c r="N19" s="7">
-        <v>7165700</v>
+        <v>7095742</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
